--- a/models/too-map/source/too-map.xlsx
+++ b/models/too-map/source/too-map.xlsx
@@ -1324,7 +1324,7 @@
     <t>Infracervical Autonomic Ganglia</t>
   </si>
   <si>
-    <t>{"x": -60, "y": 5},{"x": -60, "y": 15},{"x": -5, "y": 15},{"x": -5, "y": 5}</t>
+    <t>{"x": -60, "y": 17},{"x": -60, "y": 22},{"x": -5, "y": 22},{"x": -5, "y": 17}</t>
   </si>
   <si>
     <t>FMA:6475, FMA:6476, FMA:6477, FMA:6478, FMA:6479, FMA:6480, FMA:6481, FMA:6482, FMA:6483, FMA:6484, FMA:6485, ILX:0739295, FMA:6545, FMA:6541, FMA:6542, FMA:6543, ILX:0739296, ILX:0739297, FMA:6552, FMA:6559, FMA:6554, FMA:6555, FMA:6556, FMA:6783</t>
@@ -1947,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2157,6 +2157,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -5974,7 +5977,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="74" t="s">
         <v>434</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -5988,7 +5991,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="75" t="s">
         <v>437</v>
       </c>
       <c r="B22" s="68" t="s">
@@ -5999,7 +6002,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="76" t="s">
         <v>439</v>
       </c>
       <c r="G22" s="60" t="s">
@@ -6082,7 +6085,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="77" t="s">
         <v>455</v>
       </c>
       <c r="B26" s="64" t="s">
@@ -6105,16 +6108,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>460</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="76" t="s">
         <v>461</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="76" t="s">
         <v>462</v>
       </c>
       <c r="G27" s="71" t="s">
@@ -6128,7 +6131,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="77" t="s">
         <v>465</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -6151,7 +6154,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="77" t="s">
         <v>470</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -6206,7 +6209,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="79" t="s">
         <v>482</v>
       </c>
       <c r="G31" s="71" t="s">
@@ -6229,7 +6232,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="79" t="s">
         <v>487</v>
       </c>
       <c r="G32" s="71" t="s">
@@ -6252,7 +6255,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="79" t="s">
         <v>492</v>
       </c>
       <c r="G33" s="71" t="s">
@@ -6275,7 +6278,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="79" t="s">
         <v>497</v>
       </c>
       <c r="G34" s="71" t="s">
@@ -6298,7 +6301,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="79" t="s">
         <v>502</v>
       </c>
       <c r="G35" s="71" t="s">
@@ -6321,7 +6324,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="79" t="s">
         <v>507</v>
       </c>
       <c r="G36" s="71" t="s">
@@ -6344,7 +6347,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="79" t="s">
         <v>512</v>
       </c>
       <c r="G37" s="71" t="s">
@@ -6367,7 +6370,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="79" t="s">
         <v>517</v>
       </c>
       <c r="G38" s="71" t="s">
@@ -6390,7 +6393,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="79" t="s">
         <v>522</v>
       </c>
       <c r="G39" s="71" t="s">
@@ -6413,7 +6416,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="79" t="s">
         <v>527</v>
       </c>
       <c r="G40" s="71" t="s">
@@ -6436,7 +6439,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="79" t="s">
         <v>532</v>
       </c>
       <c r="G41" s="71" t="s">
@@ -6459,7 +6462,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="79" t="s">
         <v>537</v>
       </c>
       <c r="G42" s="71" t="s">
@@ -6522,8 +6525,8 @@
       <c r="C2" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
@@ -6535,8 +6538,8 @@
       <c r="C3" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
@@ -6548,8 +6551,8 @@
       <c r="C4" s="40" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
@@ -6558,11 +6561,11 @@
       <c r="B5" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="40" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
@@ -6571,11 +6574,11 @@
       <c r="B6" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
@@ -6584,11 +6587,11 @@
       <c r="B7" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="40" t="s">
         <v>560</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -6597,8 +6600,8 @@
       <c r="B8" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="40" t="s">
         <v>563</v>
       </c>
@@ -6610,7 +6613,7 @@
       <c r="B9" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="39"/>
       <c r="E9" s="47" t="s">
         <v>566</v>
@@ -6623,22 +6626,22 @@
       <c r="B10" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="40" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>570</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="81" t="s">
         <v>571</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="82" t="s">
         <v>572</v>
       </c>
     </row>
@@ -6669,98 +6672,98 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>576</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>578</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>580</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>582</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>584</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="83" t="s">
         <v>586</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="84" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>590</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>592</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="84" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>594</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="84" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>596</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="84" t="s">
         <v>597</v>
       </c>
     </row>

--- a/models/too-map/source/too-map.xlsx
+++ b/models/too-map/source/too-map.xlsx
@@ -1303,7 +1303,7 @@
     <t>Pterygopalatine Ganglion, Submandibular Ganglion, Geniculate Ganglion, Nodose Ganglion, Petrous Ganglion, Jugular Ganglion, Superior Glossopharengeal Ganglion, Superior Cervical Ganglion, Middle Cervical Ganglion, Inferior Cervical Ganglion, Stellate Ganglion, Ciliary Ganglion, Trigeminal Ganglion, Otic Ganglion, T1 Sympathetic Ganglion, Vestibular Ganglion</t>
   </si>
   <si>
-    <t>n1N</t>
+    <t>n2N</t>
   </si>
   <si>
     <t>Infracranial Nerves</t>
@@ -1729,7 +1729,7 @@
     <t>N regions</t>
   </si>
   <si>
-    <t>n1,n2,n3,n4,n1H,n1T,n1P,n1A,n1G,n1N,n2G,n2R,n3A,n3M,n3L,n3U,n4c,n4V,n4R,n4O,n4C1N,n4C2N,n4C3N,n4C4N,n4C5N,n4C6N,n4C7N,n4C8N,n1C9N,n1C10N,n1C11N,n1C12N</t>
+    <t>n1,n2,n3,n4,n1H,n1T,n1P,n1A,n1G,n2N,n2G,n2R,n3A,n3M,n3L,n3U,n4c,n4V,n4R,n4O,n4C1N,n4C2N,n4C3N,n4C4N,n4C5N,n4C6N,n4C7N,n4C8N,n1C9N,n1C10N,n1C11N,n1C12N</t>
   </si>
   <si>
     <t>nerves</t>
@@ -1823,11 +1823,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1841,6 +1842,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF067D17"/>
@@ -1981,20 +1987,20 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2006,28 +2012,28 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2042,7 +2048,7 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2054,40 +2060,40 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2097,20 +2103,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2137,10 +2143,10 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2155,28 +2161,28 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2185,8 +2191,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2421,10 +2427,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="26.86"/>
+    <col customWidth="1" min="3" max="3" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2481,10 +2487,10 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="49.43"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="43.25"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3420,22 +3426,22 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="25.29"/>
-    <col customWidth="1" min="3" max="3" width="7.14"/>
-    <col customWidth="1" min="4" max="4" width="6.43"/>
-    <col customWidth="1" min="5" max="5" width="9.71"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
-    <col customWidth="1" min="8" max="8" width="9.29"/>
-    <col customWidth="1" min="9" max="9" width="7.14"/>
-    <col customWidth="1" min="10" max="11" width="12.14"/>
-    <col customWidth="1" min="12" max="12" width="7.43"/>
-    <col customWidth="1" min="13" max="13" width="49.71"/>
-    <col customWidth="1" min="14" max="14" width="52.0"/>
-    <col customWidth="1" min="15" max="15" width="16.71"/>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="3" max="3" width="6.25"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="8.5"/>
+    <col customWidth="1" min="6" max="6" width="8.75"/>
+    <col customWidth="1" min="7" max="7" width="13.88"/>
+    <col customWidth="1" min="8" max="8" width="8.13"/>
+    <col customWidth="1" min="9" max="9" width="6.25"/>
+    <col customWidth="1" min="10" max="11" width="10.63"/>
+    <col customWidth="1" min="12" max="12" width="6.5"/>
+    <col customWidth="1" min="13" max="13" width="43.5"/>
+    <col customWidth="1" min="14" max="14" width="45.5"/>
+    <col customWidth="1" min="15" max="15" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5522,13 +5528,13 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="6" width="53.86"/>
-    <col customWidth="1" min="8" max="8" width="33.14"/>
-    <col customWidth="1" min="9" max="9" width="42.29"/>
+    <col customWidth="1" min="2" max="2" width="23.63"/>
+    <col customWidth="1" min="5" max="5" width="15.88"/>
+    <col customWidth="1" min="6" max="6" width="47.13"/>
+    <col customWidth="1" min="8" max="8" width="29.0"/>
+    <col customWidth="1" min="9" max="9" width="37.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6491,11 +6497,11 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="69.71"/>
-    <col customWidth="1" min="4" max="4" width="71.0"/>
-    <col customWidth="1" min="5" max="5" width="46.0"/>
+    <col customWidth="1" min="3" max="3" width="61.0"/>
+    <col customWidth="1" min="4" max="4" width="62.13"/>
+    <col customWidth="1" min="5" max="5" width="40.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6658,9 +6664,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/models/too-map/source/too-map.xlsx
+++ b/models/too-map/source/too-map.xlsx
@@ -15,8 +15,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B14">
+      <text>
+        <t xml:space="preserve">terminus is ambiguous
+	-Tom Gillespie</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">symp-chain-wire shouldn't be in the group that is always visible, and most of these N wires should be hidden anyway
+	-Tom Gillespie</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A5">
+      <text>
+        <t xml:space="preserve">need a way to indicate that certain groups should always be visible
+	-Tom Gillespie</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="605">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +174,15 @@
   </si>
   <si>
     <t>junction of ampulla of Vater with duodenum</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>junction of pancreatic and common bile ducts with ampulla of Vater</t>
+  </si>
+  <si>
+    <t>{"x": 0, "y": 77}</t>
   </si>
   <si>
     <t>f1P</t>
@@ -604,7 +651,7 @@
     <t>Proximal Half of Duodenum, Stomach, Oesophagus, Laryngopharynx</t>
   </si>
   <si>
-    <t>w-O-f1P</t>
+    <t>w-I-f1P</t>
   </si>
   <si>
     <t>Pancreatic Tract</t>
@@ -616,7 +663,7 @@
     <t>Pancreatic Duct, Pancreas</t>
   </si>
   <si>
-    <t>w-O-f2L</t>
+    <t>w-I-f2L</t>
   </si>
   <si>
     <t>Hepatobiliary Tract</t>
@@ -626,6 +673,18 @@
   </si>
   <si>
     <t>Hepatobiliary System</t>
+  </si>
+  <si>
+    <t>w-O-I</t>
+  </si>
+  <si>
+    <t>Ampulla of Vater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBERON:0004913 </t>
+  </si>
+  <si>
+    <t>Hepatopancreatic Ampulla</t>
   </si>
   <si>
     <t>w-O-R</t>
@@ -1997,11 +2056,11 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2645,18 +2704,20 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
@@ -2673,43 +2734,39 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>0.5</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.3</v>
-      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -2718,12 +2775,16 @@
       <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="16">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
@@ -2732,65 +2793,65 @@
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.4</v>
-      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>0.75</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
@@ -2799,16 +2860,12 @@
       <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="15">
-        <v>0.4</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
@@ -2817,12 +2874,16 @@
       <c r="B19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="16">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
@@ -2831,30 +2892,30 @@
       <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.6</v>
-      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
@@ -2877,31 +2938,29 @@
       <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.8</v>
-      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.95</v>
+      <c r="D24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.8</v>
       </c>
     </row>
     <row r="25">
@@ -2913,83 +2972,82 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.9</v>
+      <c r="E25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="16">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="E29" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="24">
         <v>0.0</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
@@ -3009,61 +3067,59 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="24">
+      <c r="E32" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="24">
         <v>0.25</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="3"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -3074,17 +3130,17 @@
       <c r="B34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0.2</v>
-      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
@@ -3093,97 +3149,95 @@
       <c r="B35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="16">
+        <v>0.2</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="C36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>116</v>
+      <c r="A37" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F37" s="24">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="27" t="s">
@@ -3197,10 +3251,10 @@
         <v>24</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="30">
-        <v>0.25</v>
+        <v>125</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.0</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -3208,20 +3262,20 @@
     </row>
     <row r="41">
       <c r="A41" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F41" s="30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -3229,51 +3283,51 @@
     </row>
     <row r="42">
       <c r="A42" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="31" t="s">
         <v>128</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F42" s="30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="27" t="s">
         <v>130</v>
       </c>
+      <c r="B43" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="C43" s="28"/>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="E43" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C44" s="28"/>
@@ -3281,46 +3335,55 @@
         <v>24</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F44" s="35">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
-        <v>138</v>
+      <c r="A47" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3328,23 +3391,23 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="37" t="s">
-        <v>142</v>
+      <c r="A49" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="37" t="s">
-        <v>143</v>
+      <c r="C49" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3352,11 +3415,11 @@
     </row>
     <row r="50">
       <c r="A50" s="37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -3364,11 +3427,11 @@
     </row>
     <row r="51">
       <c r="A51" s="37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -3376,11 +3439,11 @@
     </row>
     <row r="52">
       <c r="A52" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3388,11 +3451,11 @@
     </row>
     <row r="53">
       <c r="A53" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3400,18 +3463,31 @@
     </row>
     <row r="54">
       <c r="A54" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
+    <row r="55">
+      <c r="A55" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3452,62 +3528,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>92</v>
+      <c r="A2" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3517,24 +3593,24 @@
       <c r="O2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>122</v>
+      <c r="A3" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3544,24 +3620,24 @@
       <c r="O3" s="39"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3572,10 +3648,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>22</v>
@@ -3584,7 +3660,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
@@ -3594,25 +3670,25 @@
         <v>28</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O5" s="39"/>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>26</v>
@@ -3621,7 +3697,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3632,19 +3708,19 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O6" s="39"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
@@ -3653,7 +3729,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
@@ -3663,59 +3739,59 @@
         <v>28</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O7" s="39"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>183</v>
+      <c r="A8" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>-25.0</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O8" s="39"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
@@ -3724,7 +3800,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -3735,19 +3811,19 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O9" s="39"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>191</v>
+      <c r="A10" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
@@ -3756,7 +3832,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
@@ -3766,16 +3842,16 @@
         <v>28</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="40" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O10" s="40"/>
     </row>
@@ -3791,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>18</v>
@@ -3801,7 +3877,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3813,20 +3889,20 @@
       <c r="O11" s="42"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>195</v>
+      <c r="A12" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>199</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3839,28 +3915,28 @@
       <c r="K12" s="3"/>
       <c r="L12" s="6"/>
       <c r="M12" s="44" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O12" s="40"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>199</v>
+      <c r="A13" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3873,495 +3949,495 @@
       <c r="K13" s="3"/>
       <c r="L13" s="6"/>
       <c r="M13" s="40" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N13" s="40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O13" s="40"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" s="40"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="O14" s="42"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="I15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="O15" s="42"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" s="40"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="O16" s="39"/>
+      <c r="M16" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
+      <c r="M17" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" s="39"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="O18" s="39"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3"/>
+      <c r="E19" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="39"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="A20" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+      <c r="A21" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="O21" s="39"/>
+      <c r="I21" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>166</v>
-      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="O22" s="39"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="I23" s="38" t="s">
+        <v>169</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="N23" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="O23" s="39"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>238</v>
       </c>
       <c r="O24" s="39"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>72</v>
+      <c r="A25" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O25" s="39"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="38"/>
+      <c r="A26" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O26" s="39"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>242</v>
+      <c r="A27" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="38"/>
       <c r="H27" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>247</v>
       </c>
       <c r="O27" s="39"/>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>247</v>
+      <c r="A28" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -4372,29 +4448,31 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>247</v>
+        <v>251</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="O28" s="39"/>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>249</v>
+      <c r="A29" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
         <v>28</v>
       </c>
@@ -4402,28 +4480,29 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O29" s="39"/>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>254</v>
+      <c r="A30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>28</v>
       </c>
@@ -4431,178 +4510,183 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O30" s="39"/>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>33</v>
+      <c r="A31" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" s="39"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="A32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>177</v>
+      <c r="B32" s="12"/>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="H32" s="7"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="O32" s="39"/>
+      <c r="L32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>260</v>
+      <c r="A33" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O33" s="39"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="A34" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" s="39"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -4613,20 +4697,20 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -4637,20 +4721,20 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -4660,373 +4744,376 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="A39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="N40" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="N39" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="O39" s="39"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="N40" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="O40" s="51"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J41" s="43">
+      <c r="D41" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="N41" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J42" s="43">
         <v>30.0</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="O41" s="39"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="K42" s="3"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="52" t="b">
+      <c r="I43" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="N42" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="O42" s="53"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="N43" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" s="53"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J43" s="43">
+      <c r="D44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" s="43">
         <v>30.0</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="52" t="b">
+      <c r="K44" s="3"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="52" t="b">
         <v>1</v>
       </c>
-      <c r="N44" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="O44" s="53"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="N45" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="O45" s="53"/>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>294</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="26" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="N46" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="O46" s="51"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="26" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O47" s="51"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="A48" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="N48" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="O48" s="51"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
-        <v>302</v>
+      <c r="A49" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>303</v>
+      <c r="A50" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -5034,355 +5121,343 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A52" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="N52" s="38" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="J53" s="15">
-        <v>-20.0</v>
-      </c>
+      <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="55" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N53" s="38" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="J54" s="56"/>
+      <c r="J54" s="16">
+        <v>-20.0</v>
+      </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="55" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="A55" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="D56" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I56" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="J56" s="6"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>318</v>
+      <c r="A57" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="14" t="s">
-        <v>319</v>
+      <c r="A58" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="I60" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="N59" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="L60" s="38" t="b">
+      <c r="J60" s="28"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O60" s="39"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="L61" s="38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" s="28"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="O61" s="39"/>
-    </row>
     <row r="62">
-      <c r="A62" s="32" t="s">
-        <v>330</v>
+      <c r="A62" s="57" t="s">
+        <v>333</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="34" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N62" s="39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O62" s="39"/>
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>132</v>
@@ -5391,126 +5466,159 @@
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="34" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J63" s="28"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O63" s="39"/>
     </row>
     <row r="64">
-      <c r="A64" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="L64" s="38" t="b">
-        <v>1</v>
-      </c>
+      <c r="A64" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J64" s="28"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="O64" s="39"/>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>338</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="J65" s="43">
+      <c r="H65" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="L65" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" s="43">
         <v>50.0</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="M65" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H66" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="J66" s="43">
-        <v>-50.0</v>
       </c>
       <c r="K66" s="3"/>
       <c r="M66" s="6" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="N66" s="39" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="O66" s="39"/>
     </row>
     <row r="67">
-      <c r="A67" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="A67" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H67" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="J67" s="43">
+        <v>-50.0</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="M67" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="N67" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="O67" s="39"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5548,16 +5656,16 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -5568,89 +5676,89 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D2" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D3" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D4" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D5" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D6" s="63" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -5659,19 +5767,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D7" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5680,19 +5788,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D8" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5701,19 +5809,19 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D9" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5722,44 +5830,44 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D11" s="63" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -5768,19 +5876,19 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D12" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -5789,19 +5897,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D13" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -5810,19 +5918,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D14" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -5831,654 +5939,654 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="64" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="67" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="64" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="64" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="64" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="64" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>427</v>
+      <c r="A20" s="15" t="s">
+        <v>434</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="70" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G20" s="71" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="73" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="74" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="75" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="76" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="64" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="64" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H24" s="60" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="64" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H25" s="60" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="77" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="64" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="78" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="76" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="77" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="64" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="77" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="64" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H29" s="60" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="39" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="64" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="79" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="G31" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="I31" s="60" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="39" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="79" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="79" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G33" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H33" s="66" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="39" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="79" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G34" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="79" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="39" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="79" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G36" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="39" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="79" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="39" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="79" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G38" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="39" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="79" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="39" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="79" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G40" s="71" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="39" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="79" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G41" s="71" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H41" s="60" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="39" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="79" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6512,147 +6620,148 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="80"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="40" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E5" s="80"/>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="40" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="E6" s="80"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="40" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E7" s="80"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="39"/>
       <c r="E9" s="47" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
       <c r="E10" s="40" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="81" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="82" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6671,7 +6780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -6679,98 +6788,98 @@
     </row>
     <row r="2">
       <c r="A2" s="83" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="83" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="83" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="83" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="83" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="83" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="83" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="83" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="83" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="83" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="83" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="83" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/models/too-map/source/too-map.xlsx
+++ b/models/too-map/source/too-map.xlsx
@@ -1743,7 +1743,7 @@
     <t>F wires</t>
   </si>
   <si>
-    <t>w-F,w-B-Z,w-Z-f1S,w-Z-X,w-X-f4E,w-X-f1L,w-X-O,w-B-O,w-O-f1P,w-O-f2L,w-O-R,w-R-G,w-G-f3G,w-G-U,w-U-f3K,w-U-M,w-R-M,w-M-f3M,w-M-W,w-W-f4C,w-W-J,w-J-f4P,w-J-V,w-V-f4N,w-f4N-f4P,w-f4P-f4L,w-f4N-f4E,w-V-f4N-f4E-X,w-f4E-f4M,w-V-B,w-M-B,w-F-B,w-F-O,w-F-R,w-F-M</t>
+    <t>w-F,w-B-Z,w-Z-f1S,w-Z-X,w-X-f4E,w-X-f1L,w-X-O,w-B-O,w-O-I, w-I-f1P,w-I-f2L,w-O-R,w-R-G,w-G-f3G,w-G-U,w-U-f3K,w-U-M,w-R-M,w-M-f3M,w-M-W,w-W-f4C,w-W-J,w-J-f4P,w-J-V,w-V-f4N,w-f4N-f4P,w-f4P-f4L,w-f4N-f4E,w-V-f4N-f4E-X,w-f4E-f4M,w-V-B,w-M-B,w-F-B,w-F-O,w-F-R,w-F-M</t>
   </si>
   <si>
     <t>wires-d</t>
@@ -1794,7 +1794,7 @@
     <t>nerves</t>
   </si>
   <si>
-    <t>Nerve regions</t>
+    <t>Cranial nerve regions</t>
   </si>
   <si>
     <t>n4C1N,n4C2N,n4C3N,n4C4N,n4C5N,n4C6N,n4C7N,n4C8N,n1C9N,n1C10N,n1C11N,n1C12N</t>
@@ -6750,7 +6750,7 @@
       <c r="A11" s="81" t="s">
         <v>577</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="3" t="s">
         <v>578</v>
       </c>
       <c r="C11" s="6"/>

--- a/models/too-map/source/too-map.xlsx
+++ b/models/too-map/source/too-map.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -861,7 +861,7 @@
     <t>w-V-B</t>
   </si>
   <si>
-    <t>Pfiltrum skin</t>
+    <t>Philtrum skin</t>
   </si>
   <si>
     <t>FMA:59377</t>
@@ -1108,6 +1108,12 @@
   </si>
   <si>
     <t>symp-chain-wire</t>
+  </si>
+  <si>
+    <t>UBERON:0000407</t>
+  </si>
+  <si>
+    <t>Sympathetic Trunk</t>
   </si>
   <si>
     <t>inactive</t>
@@ -1236,6 +1242,21 @@
     <t>UBERON:0002106</t>
   </si>
   <si>
+    <t>d2T</t>
+  </si>
+  <si>
+    <t>Thymus</t>
+  </si>
+  <si>
+    <t>{"x": -30, "y": 40},
+{"x": -30, "y": 50},
+{"x": -20, "y": 50},
+{"x": -20, "y": 40}</t>
+  </si>
+  <si>
+    <t>UBERON:0002370</t>
+  </si>
+  <si>
     <t>n1</t>
   </si>
   <si>
@@ -1422,15 +1443,18 @@
     <t>n3M</t>
   </si>
   <si>
+    <t>Skeletal Musculature and Fasciae</t>
+  </si>
+  <si>
+    <t>{"x": -60, "y": -27},{"x": -60, "y": -17},{"x": -5, "y": -17},{"x": -5, "y": -27}</t>
+  </si>
+  <si>
+    <t>UBERON:0018254</t>
+  </si>
+  <si>
     <t>Skeletal Musculature</t>
   </si>
   <si>
-    <t>{"x": -60, "y": -27},{"x": -60, "y": -17},{"x": -5, "y": -17},{"x": -5, "y": -27}</t>
-  </si>
-  <si>
-    <t>UBERON:0018254</t>
-  </si>
-  <si>
     <t>n3L</t>
   </si>
   <si>
@@ -1494,7 +1518,7 @@
     <t>n4R</t>
   </si>
   <si>
-    <t>Retinal</t>
+    <t>Ocular</t>
   </si>
   <si>
     <t>{"x": 50, "y": -30},{"x": 50, "y": -20},{"x": 60, "y": -20},{"x": 60, "y": -30}</t>
@@ -1503,7 +1527,7 @@
     <t>UBERON:0000966</t>
   </si>
   <si>
-    <t>Retina</t>
+    <t>Eye</t>
   </si>
   <si>
     <t>n4O</t>
@@ -1716,7 +1740,7 @@
     <t>F anchors</t>
   </si>
   <si>
-    <t>F,B,Z,f1S,X,f1L,O,f1P,f2L,R,G,f3G,U,f3K,M,f3M,W,f4C,J,f4P,f4L,V,f4N,f4E,f4M</t>
+    <t>F,B,Z,f1S,X,f1L,O,f1P,f2L,R,G,f3G,U,f3K,M,f3M,W,f4C,J,f4P,f4L,V,f4N,f4E,f4M,I</t>
   </si>
   <si>
     <t>anchors-d</t>
@@ -2012,7 +2036,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2196,6 +2220,12 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2228,9 +2258,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -4605,7 +4632,7 @@
       <c r="A34" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -5619,6 +5646,12 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
+      <c r="M68" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="N68" s="38" t="s">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5638,7 +5671,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="27.0"/>
     <col customWidth="1" min="5" max="5" width="15.88"/>
     <col customWidth="1" min="6" max="6" width="47.13"/>
     <col customWidth="1" min="8" max="8" width="29.0"/>
@@ -5656,16 +5689,16 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
@@ -5676,89 +5709,89 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D2" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D3" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D5" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D6" s="63" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -5767,19 +5800,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D7" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5788,19 +5821,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D8" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5809,19 +5842,19 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D9" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5830,86 +5863,90 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="I10" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H10" s="61" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="I10" s="61" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" s="63" t="b">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D12" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D13" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -5918,19 +5955,19 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D14" s="52" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -5938,116 +5975,112 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="64" t="s">
+      <c r="A15" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" s="66" t="s">
+      <c r="B15" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="C15" s="6" t="s">
         <v>412</v>
       </c>
+      <c r="D15" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="67" t="s">
-        <v>413</v>
+      <c r="A16" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>416</v>
+        <v>398</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>417</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>418</v>
+      <c r="A17" s="69" t="s">
+        <v>419</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="64" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" s="60" t="s">
         <v>424</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>425</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="60" t="s">
         <v>430</v>
       </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="64" t="s">
         <v>431</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="H19" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>432</v>
       </c>
       <c r="I19" s="60" t="s">
@@ -6055,538 +6088,563 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>430</v>
+      <c r="C20" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="71" t="s">
         <v>436</v>
-      </c>
-      <c r="G20" s="71" t="s">
-        <v>396</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="73" t="s">
-        <v>439</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>440</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>396</v>
+      <c r="F21" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>402</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="I21" s="66" t="s">
         <v>443</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="75" t="s">
-        <v>444</v>
-      </c>
-      <c r="B22" s="68" t="s">
         <v>445</v>
       </c>
+      <c r="B22" s="70" t="s">
+        <v>446</v>
+      </c>
       <c r="C22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="76" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="I22" s="60" t="s">
         <v>448</v>
       </c>
+      <c r="I22" s="68" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="B23" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="64" t="s">
-        <v>451</v>
+      <c r="F23" s="65" t="s">
+        <v>452</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H23" s="60" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="64" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H24" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="60" t="s">
         <v>456</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>460</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="64" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H25" s="60" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="77" t="s">
-        <v>462</v>
+      <c r="A26" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="64" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>465</v>
+        <v>406</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>467</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="78" t="s">
-        <v>467</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>468</v>
+        <v>469</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>470</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="76" t="s">
-        <v>469</v>
-      </c>
-      <c r="G27" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>470</v>
+      <c r="F27" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" s="68" t="s">
+        <v>472</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="77" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>473</v>
+      <c r="A28" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>475</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>475</v>
+      <c r="F28" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>477</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="77" t="s">
-        <v>477</v>
+      <c r="A29" s="78" t="s">
+        <v>479</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="64" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>480</v>
+        <v>410</v>
+      </c>
+      <c r="H29" s="68" t="s">
+        <v>482</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>483</v>
+      <c r="A30" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>485</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="64" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>485</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>486</v>
+        <v>410</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="79" t="s">
-        <v>489</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>490</v>
+      <c r="F31" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="H31" s="68" t="s">
+        <v>492</v>
       </c>
       <c r="I31" s="60" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="39" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="79" t="s">
-        <v>494</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>495</v>
+      <c r="F32" s="80" t="s">
+        <v>496</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>497</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="79" t="s">
-        <v>499</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H33" s="66" t="s">
-        <v>500</v>
+      <c r="F33" s="80" t="s">
+        <v>501</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="68" t="s">
+        <v>502</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="39" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="79" t="s">
-        <v>504</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H34" s="66" t="s">
-        <v>505</v>
+      <c r="F34" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H34" s="68" t="s">
+        <v>507</v>
       </c>
       <c r="I34" s="60" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="79" t="s">
-        <v>509</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H35" s="66" t="s">
-        <v>510</v>
+      <c r="F35" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H35" s="68" t="s">
+        <v>512</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="39" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="79" t="s">
-        <v>514</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>515</v>
+      <c r="F36" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H36" s="68" t="s">
+        <v>517</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="39" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="79" t="s">
-        <v>519</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H37" s="66" t="s">
-        <v>520</v>
+      <c r="F37" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>522</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="39" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="79" t="s">
-        <v>524</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="H38" s="66" t="s">
-        <v>525</v>
+      <c r="F38" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>527</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="39" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="H39" s="66" t="s">
-        <v>530</v>
+      <c r="F39" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>532</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="39" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="79" t="s">
-        <v>534</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="H40" s="66" t="s">
-        <v>535</v>
+      <c r="F40" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>537</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="39" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="79" t="s">
-        <v>539</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>540</v>
+      <c r="F41" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>542</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="39" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="79" t="s">
-        <v>544</v>
-      </c>
-      <c r="G42" s="71" t="s">
-        <v>392</v>
+      <c r="F42" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>398</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>546</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="G43" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6620,143 +6678,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+        <v>559</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+        <v>562</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+        <v>565</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="C5" s="80"/>
+        <v>567</v>
+      </c>
+      <c r="C5" s="81"/>
       <c r="D5" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="E5" s="80"/>
+        <v>568</v>
+      </c>
+      <c r="E5" s="81"/>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="C6" s="80"/>
+        <v>570</v>
+      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="80"/>
+        <v>571</v>
+      </c>
+      <c r="E6" s="81"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="80"/>
+        <v>573</v>
+      </c>
+      <c r="C7" s="81"/>
       <c r="D7" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" s="80"/>
+        <v>574</v>
+      </c>
+      <c r="E7" s="81"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
+        <v>576</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="40" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C9" s="80"/>
+        <v>579</v>
+      </c>
+      <c r="C9" s="81"/>
       <c r="D9" s="39"/>
       <c r="E9" s="47" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
+        <v>582</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="40" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81" t="s">
-        <v>577</v>
+      <c r="A11" s="82" t="s">
+        <v>584</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="82" t="s">
-        <v>579</v>
+      <c r="E11" s="83" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6780,106 +6838,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>582</v>
+      <c r="A2" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="83" t="s">
-        <v>583</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>584</v>
+      <c r="A3" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="83" t="s">
-        <v>585</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>586</v>
+      <c r="A4" s="84" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="83" t="s">
-        <v>587</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>588</v>
+      <c r="A5" s="84" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="83" t="s">
-        <v>589</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>590</v>
+      <c r="A6" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="83" t="s">
-        <v>591</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>592</v>
+      <c r="A7" s="84" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="83" t="s">
-        <v>593</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>594</v>
+      <c r="A8" s="84" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="83" t="s">
-        <v>595</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>596</v>
+      <c r="A9" s="84" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="83" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>598</v>
+      <c r="A10" s="84" t="s">
+        <v>604</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="83" t="s">
-        <v>599</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>600</v>
+      <c r="A11" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
-        <v>601</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>602</v>
+      <c r="A12" s="84" t="s">
+        <v>608</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="83" t="s">
-        <v>603</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>604</v>
+      <c r="A13" s="84" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
